--- a/data/trans_bre/P15B_tráfico-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-37.55661109931174</v>
+        <v>-36.62988555988175</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.32712061821913</v>
+        <v>-22.67798743270589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.80246402386104</v>
+        <v>-15.34928327198526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.78285054906234</v>
+        <v>6.738793206786742</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6633301891046604</v>
+        <v>-0.6389644681694885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.432583714615781</v>
+        <v>-0.448559837797602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4599122480289681</v>
+        <v>-0.4625604883947644</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>30.00524790201783</v>
+        <v>29.35970543648816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.86567349720007</v>
+        <v>19.42122347708071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34.16663082032481</v>
+        <v>34.52965438476789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86.20999701644112</v>
+        <v>86.10782711252905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6876966474131263</v>
+        <v>0.7178141775669162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5484194371840388</v>
+        <v>0.5439631927053945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.780687653744746</v>
+        <v>1.78291293959452</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         <v>0.4884504241088606</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.5401058558439746</v>
+        <v>-0.5401058558439745</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-25.72674083504072</v>
+        <v>-24.87488860991236</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.65492723770779</v>
+        <v>-10.2336157252167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.61494540225116</v>
+        <v>-9.345375774447399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-53.2109352757011</v>
+        <v>-53.34423439350451</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6311494353575408</v>
+        <v>-0.6277773377463867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3982010996521206</v>
+        <v>-0.3823726372850855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3422071434910318</v>
+        <v>-0.2952460530970474</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9065435609669201</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>31.51045635538093</v>
+        <v>30.54646250995977</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.45292109750712</v>
+        <v>27.02504114963574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37.29987011463366</v>
+        <v>37.38846168598533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.22727162541156</v>
+        <v>7.451067016722552</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.637163279057748</v>
+        <v>1.638413255085122</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.47033453095618</v>
+        <v>1.398583928790834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.99711579593865</v>
+        <v>2.156466351711832</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5432966200396274</v>
+        <v>0.5433814600501861</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-4.680736203686287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.5126343430966185</v>
+        <v>-0.5126343430966129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1539104978829769</v>
@@ -845,7 +845,7 @@
         <v>-0.1835822770222877</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01405318323921821</v>
+        <v>-0.01405318323921806</v>
       </c>
     </row>
     <row r="11">
@@ -856,26 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-26.53031368792053</v>
+        <v>-26.79575068798994</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-27.34728608746191</v>
+        <v>-24.86675262370987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.48351514275519</v>
+        <v>-25.4793587881096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-21.73932878697958</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-22.92944095581331</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7264604382889581</v>
+        <v>-0.6843067450274172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7676338250619993</v>
+        <v>-0.7779846742860724</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4779637479216123</v>
+        <v>-0.4794729653268338</v>
       </c>
     </row>
     <row r="12">
@@ -886,26 +888,30 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>32.78934550923378</v>
+        <v>33.89967855972726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.74924398498476</v>
+        <v>15.15414456082803</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.58201768150983</v>
+        <v>19.31361683071155</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.44547986183755</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>20.35372228436829</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.7572064056000904</v>
+        <v>0.7976587475112749</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.426202894532792</v>
+        <v>1.427895374475858</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.113008710696588</v>
+        <v>0.8926541023064375</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +935,7 @@
         <v>20.6764186841581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-15.75168645895174</v>
+        <v>-15.75168645895173</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.35604190299908</v>
@@ -941,7 +947,7 @@
         <v>1.572820122227771</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5094579303045721</v>
+        <v>-0.509457930304572</v>
       </c>
     </row>
     <row r="14">
@@ -952,24 +958,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.50620410088944</v>
+        <v>-14.18126611864075</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.32709373073106</v>
+        <v>-5.967141817432429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.964008549554795</v>
+        <v>-3.170025826838192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-32.50551422149213</v>
+        <v>-32.74568870077284</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.7173876346640533</v>
+      </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4768849798372543</v>
+        <v>-0.3321689659894374</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8028500539885653</v>
+        <v>-0.8218353876470308</v>
       </c>
     </row>
     <row r="15">
@@ -980,24 +988,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>60.67529722260873</v>
+        <v>62.71995950177103</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.6769267793437</v>
+        <v>27.67468640022372</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46.2377352609818</v>
+        <v>46.66655911534852</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.144705195793934</v>
+        <v>0.1839718552956918</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>10.96859765033937</v>
+        <v>10.49362704124968</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2342701945107394</v>
+        <v>0.04214692988244775</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1029,7 @@
         <v>-19.9092916186233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.18806155406297</v>
+        <v>-2.188061554062978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1033,7 +1041,7 @@
         <v>-0.8608595411197392</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.09749127032031234</v>
+        <v>-0.09749127032031271</v>
       </c>
     </row>
     <row r="17">
@@ -1044,24 +1052,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-56.74197724043708</v>
+        <v>-57.30972702847799</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.39157994263935</v>
+        <v>-40.84272120680958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-47.29886691165471</v>
+        <v>-50.83582640361782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-19.79619839087317</v>
+        <v>-21.09415593400631</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.8599263331798928</v>
+        <v>-0.8872019153781051</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.6073365620264212</v>
+        <v>-0.6345872759403697</v>
       </c>
     </row>
     <row r="18">
@@ -1075,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.74593373381258</v>
+        <v>12.82260119239632</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0</v>
+        <v>-1.092323927180079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.35538351544814</v>
+        <v>13.4393040211408</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.124940140752827</v>
+        <v>1.129530656342389</v>
       </c>
     </row>
     <row r="19">
@@ -1136,22 +1144,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-81.04606719064581</v>
+        <v>-79.40817822663753</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-41.10543162623657</v>
+        <v>-40.96872555803298</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-29.18174081253382</v>
+        <v>-27.37594403839132</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.7985046492914304</v>
+        <v>-0.7723041382220243</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1170,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.74053930921746</v>
+        <v>12.16053787367768</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.783891598938118</v>
+        <v>7.789304484753766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.47628856581412</v>
+        <v>18.79853091100891</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.614177404914246</v>
+        <v>9.589983923005917</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.306703254877018</v>
+        <v>1.274758656915677</v>
       </c>
     </row>
     <row r="22">
@@ -1213,7 +1221,7 @@
         <v>-0.4715732119463902</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2.546805189920906</v>
+        <v>2.546805189920905</v>
       </c>
     </row>
     <row r="23">
@@ -1224,16 +1232,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-74.20598881667007</v>
+        <v>-66.99223859112801</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-23.59146744349556</v>
+        <v>-24.18849971386566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.9471227934023</v>
+        <v>-21.41513462975123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.36628367737053</v>
+        <v>-1.105286553614419</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1248,16 +1256,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.728492892561522</v>
+        <v>4.836310624953553</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.11403229971678</v>
+        <v>4.086674382341155</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.937538264551609</v>
+        <v>5.947351200204857</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.62204858971459</v>
+        <v>10.13434244341049</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1308,28 +1316,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-22.95680562768316</v>
+        <v>-22.18342706139991</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-14.35222494218207</v>
+        <v>-14.42642469803253</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-12.43166097155703</v>
+        <v>-12.49106118649602</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-13.56170248354581</v>
+        <v>-14.16036592101707</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6222400561055136</v>
+        <v>-0.5904534079824818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4841784796467943</v>
+        <v>-0.5066549624547219</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.482512685942515</v>
+        <v>-0.4989027490920829</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4300610421398882</v>
+        <v>-0.4378441202752041</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1348,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4838002325402367</v>
+        <v>1.056847754322436</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9079403882713897</v>
+        <v>0.1110265370138007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.076460578741326</v>
+        <v>3.962856373781439</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.298396028797891</v>
+        <v>4.122197207348618</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03639728153271475</v>
+        <v>0.04852899155352208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04595900085238792</v>
+        <v>0.003423781439988957</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2561440459144601</v>
+        <v>0.2142698434787036</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1516505562568512</v>
+        <v>0.2005914184849099</v>
       </c>
     </row>
     <row r="28">
